--- a/icd_files/51545.xlsx
+++ b/icd_files/51545.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6623F-D9B2-4BFA-8D32-69D5228A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFF115-E585-4B7E-B5BA-4EDD7FE49B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="538">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -912,6 +912,9 @@
     <t>09-07</t>
   </si>
   <si>
+    <t>10-08</t>
+  </si>
+  <si>
     <t>10-09</t>
   </si>
   <si>
@@ -933,9 +936,18 @@
     <t>10-15</t>
   </si>
   <si>
+    <t>10-17</t>
+  </si>
+  <si>
     <t>10-19</t>
   </si>
   <si>
+    <t>10-22</t>
+  </si>
+  <si>
+    <t>10-23</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -945,24 +957,186 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Sodium Polystyrene Sulfonate</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Lactulose Enema</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim DS</t>
+  </si>
+  <si>
     <t>PredniSONE</t>
   </si>
   <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Pneumococcal Vac Polyvalent</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Acetylcysteine 20%</t>
+  </si>
+  <si>
+    <t>Tiotropium Bromide</t>
+  </si>
+  <si>
+    <t>Mycophenolate Mofetil</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Diltiazem</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Fluticasone-Salmeterol Diskus (100/50)</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim SS</t>
+  </si>
+  <si>
+    <t>Xopenex</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>0.5 VIAL</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>100 BAG</t>
   </si>
   <si>
-    <t>0 VIAL</t>
-  </si>
-  <si>
     <t>15:21</t>
   </si>
   <si>
@@ -975,6 +1149,15 @@
     <t>20:04</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
     <t>00:07</t>
   </si>
   <si>
@@ -996,18 +1179,33 @@
     <t>23:45</t>
   </si>
   <si>
-    <t>1000 BAG</t>
-  </si>
-  <si>
     <t>50 mL</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>150 BAG</t>
+  </si>
+  <si>
     <t>04:28</t>
   </si>
   <si>
     <t>20:53</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>30 BTL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
     <t>00:17</t>
   </si>
   <si>
@@ -1026,6 +1224,21 @@
     <t>20:34</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1000 BTL</t>
+  </si>
+  <si>
+    <t>240 mL</t>
+  </si>
+  <si>
     <t>00:06</t>
   </si>
   <si>
@@ -1041,6 +1254,9 @@
     <t>16:09</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>00:29</t>
   </si>
   <si>
@@ -1062,10 +1278,46 @@
     <t>60 TAB</t>
   </si>
   <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>750 BAG</t>
+  </si>
+  <si>
+    <t>12.5 TAB</t>
+  </si>
+  <si>
+    <t>25 mL</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>750 TAB</t>
+  </si>
+  <si>
+    <t>0.63 NEB</t>
+  </si>
+  <si>
+    <t>125 VIAL</t>
+  </si>
+  <si>
+    <t>81 TAB</t>
+  </si>
+  <si>
     <t>19:38</t>
   </si>
   <si>
-    <t>100 mL</t>
+    <t>600 VIAL</t>
   </si>
   <si>
     <t>05:30</t>
@@ -1083,9 +1335,15 @@
     <t>70 TAB</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>00:52</t>
   </si>
   <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
     <t>09:49</t>
   </si>
   <si>
@@ -1095,7 +1353,16 @@
     <t>17:00</t>
   </si>
   <si>
-    <t>500 mL</t>
+    <t>15 mL</t>
+  </si>
+  <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 DEV</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -5024,7 +5291,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000000-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6442,7 +6709,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000001-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7860,7 +8127,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000002-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9560,7 +9827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000003-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11257,7 +11524,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000004-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12300,7 +12567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000005-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13221,7 +13488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000006-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14139,7 +14406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000007-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15057,7 +15324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000008-D7B9-4340-9654-027B1D68ACE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15500,7 +15767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF52ED0-8C04-457B-8101-88DA0FE760CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E7F3C-ADEA-44CA-B231-A9B2A086684C}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -15525,7 +15792,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15538,7 +15805,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -15551,7 +15818,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -15564,7 +15831,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -15577,27 +15844,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -15625,7 +15892,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -15653,11 +15920,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -15680,7 +15947,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15717,7 +15984,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -15740,14 +16007,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -15770,14 +16037,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -15800,14 +16067,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -15830,14 +16097,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -15860,16 +16127,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -15892,14 +16159,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -15922,10 +16189,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -15933,7 +16200,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -15945,7 +16212,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -15968,7 +16235,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -15984,11 +16251,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -16011,7 +16278,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -16029,7 +16296,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -16052,7 +16319,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -16071,7 +16338,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -16094,10 +16361,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>385</v>
+        <v>474</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -16115,7 +16382,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -16138,52 +16405,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -16206,53 +16473,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -16275,43 +16542,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -16319,7 +16586,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -16342,43 +16609,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -16386,7 +16653,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -16409,43 +16676,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -16453,7 +16720,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -16476,43 +16743,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -16520,7 +16787,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -16543,43 +16810,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -16587,7 +16854,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -16610,43 +16877,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -16654,7 +16921,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -16677,43 +16944,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -16721,7 +16988,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -16744,43 +17011,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -16788,7 +17055,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -16811,43 +17078,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -16855,7 +17122,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -16878,43 +17145,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -16922,7 +17189,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -16945,43 +17212,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -16989,7 +17256,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -17012,7 +17279,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -17025,10 +17292,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -17036,7 +17303,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -17059,14 +17326,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -17081,7 +17348,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -17104,7 +17371,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -17124,7 +17391,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -17147,7 +17414,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -17167,7 +17434,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -17190,7 +17457,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -17208,11 +17475,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -17235,14 +17502,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -17265,14 +17532,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -17295,14 +17562,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -17325,14 +17592,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -17355,14 +17622,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -17385,14 +17652,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -17415,10 +17682,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>415</v>
+        <v>504</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -17435,7 +17702,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -17458,7 +17725,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -17476,7 +17743,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -17499,7 +17766,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -17517,7 +17784,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -17540,14 +17807,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -17570,14 +17837,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -17600,24 +17867,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>418</v>
+        <v>507</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -17640,7 +17907,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -17649,7 +17916,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -17672,14 +17939,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -17687,7 +17954,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -17710,7 +17977,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -17719,7 +17986,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -17742,14 +18009,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -17757,7 +18024,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -17780,7 +18047,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -17789,7 +18056,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -17812,24 +18079,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -17852,7 +18119,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -17861,7 +18128,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -17884,22 +18151,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -17907,7 +18174,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -17930,7 +18197,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -17943,7 +18210,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -17966,32 +18233,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -18014,7 +18281,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -18023,7 +18290,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -18046,14 +18313,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -18061,7 +18328,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -18084,14 +18351,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -18114,12 +18381,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -18147,7 +18414,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -18174,13 +18441,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>443</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -18208,7 +18475,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -18320,7 +18587,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>446</v>
+        <v>535</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -18348,7 +18615,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -18376,7 +18643,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -24386,13 +24653,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BN38"/>
+  <dimension ref="A30:BX84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -24400,7 +24667,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>287</v>
       </c>
@@ -24411,7 +24678,7 @@
         <v>287</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>288</v>
@@ -24432,10 +24699,10 @@
         <v>288</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>289</v>
@@ -24453,10 +24720,10 @@
         <v>289</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>290</v>
@@ -24471,13 +24738,13 @@
         <v>290</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>291</v>
@@ -24489,16 +24756,16 @@
         <v>291</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>292</v>
@@ -24507,70 +24774,70 @@
         <v>292</v>
       </c>
       <c r="AK31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AX31" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AY31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="BG31" s="1" t="s">
         <v>301</v>
@@ -24594,612 +24861,1124 @@
         <v>302</v>
       </c>
       <c r="BN31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP31" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BQ31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" t="s">
+        <v>380</v>
+      </c>
+      <c r="J32" t="s">
+        <v>381</v>
+      </c>
+      <c r="K32" t="s">
+        <v>382</v>
+      </c>
+      <c r="L32" t="s">
+        <v>383</v>
+      </c>
+      <c r="M32" t="s">
+        <v>384</v>
+      </c>
+      <c r="N32" t="s">
+        <v>360</v>
+      </c>
+      <c r="O32" t="s">
+        <v>360</v>
+      </c>
+      <c r="P32" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>380</v>
+      </c>
+      <c r="R32" t="s">
+        <v>381</v>
+      </c>
+      <c r="S32" t="s">
+        <v>382</v>
+      </c>
+      <c r="T32" t="s">
+        <v>389</v>
+      </c>
+      <c r="U32" t="s">
+        <v>360</v>
+      </c>
+      <c r="V32" t="s">
+        <v>394</v>
+      </c>
+      <c r="W32" t="s">
+        <v>395</v>
+      </c>
+      <c r="X32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>432</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>434</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>415</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>416</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>441</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>442</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K33" t="s">
+        <v>372</v>
+      </c>
+      <c r="L33" t="s">
+        <v>372</v>
+      </c>
+      <c r="M33" t="s">
+        <v>372</v>
+      </c>
+      <c r="P33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>372</v>
+      </c>
+      <c r="R33" t="s">
+        <v>372</v>
+      </c>
+      <c r="S33" t="s">
+        <v>372</v>
+      </c>
+      <c r="T33" t="s">
+        <v>372</v>
+      </c>
+      <c r="V33" t="s">
+        <v>372</v>
+      </c>
+      <c r="W33" t="s">
+        <v>372</v>
+      </c>
+      <c r="X33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="s">
+        <v>373</v>
+      </c>
+      <c r="K34" t="s">
+        <v>373</v>
+      </c>
+      <c r="L34" t="s">
+        <v>373</v>
+      </c>
+      <c r="M34" t="s">
+        <v>373</v>
+      </c>
+      <c r="P34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>373</v>
+      </c>
+      <c r="R34" t="s">
+        <v>373</v>
+      </c>
+      <c r="S34" t="s">
+        <v>373</v>
+      </c>
+      <c r="T34" t="s">
+        <v>373</v>
+      </c>
+      <c r="V34" t="s">
+        <v>373</v>
+      </c>
+      <c r="W34" t="s">
+        <v>373</v>
+      </c>
+      <c r="X34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F37" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39" t="s">
+        <v>385</v>
+      </c>
+      <c r="O39" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N40" t="s">
+        <v>386</v>
+      </c>
+      <c r="O40" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E32" t="s">
+      <c r="N41" t="s">
+        <v>387</v>
+      </c>
+      <c r="O41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F32" t="s">
+      <c r="U42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G32" t="s">
+      <c r="U43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H32" t="s">
+      <c r="U44" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I32" t="s">
+      <c r="U45" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>393</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J32" t="s">
+      <c r="AB46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K32" t="s">
+      <c r="AB47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L32" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" t="s">
-        <v>310</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="AB48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="O32" t="s">
-        <v>319</v>
-      </c>
-      <c r="P32" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>321</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="AT51" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="S32" t="s">
+      <c r="AT52" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="T32" t="s">
+      <c r="AU53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="U32" t="s">
+      <c r="B54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="V32" t="s">
+      <c r="AV55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="W32" t="s">
+      <c r="B56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>425</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="X32" t="s">
+      <c r="B57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="B58" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="B59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="B60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="B61" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="B62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AD32" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="B65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AH32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AW66" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AX67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AK32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="AZ68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AM32" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS32" t="s">
+      <c r="AV69" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AT32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="BP71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AV32" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>321</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="BU73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BV74" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BW75" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BB32" t="s">
-        <v>310</v>
-      </c>
-      <c r="BC32" t="s">
+      <c r="BX76" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BD32" t="s">
-        <v>344</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>343</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>310</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>344</v>
-      </c>
-      <c r="BK32" t="s">
+      <c r="AW78" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="AW79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BM32" t="s">
+      <c r="AW80" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BN32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" t="s">
-        <v>314</v>
-      </c>
-      <c r="E33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G33" t="s">
-        <v>314</v>
-      </c>
-      <c r="H33" t="s">
-        <v>314</v>
-      </c>
-      <c r="I33" t="s">
-        <v>314</v>
-      </c>
-      <c r="J33" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" t="s">
-        <v>314</v>
-      </c>
-      <c r="N33" t="s">
-        <v>314</v>
-      </c>
-      <c r="O33" t="s">
-        <v>314</v>
-      </c>
-      <c r="P33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>314</v>
-      </c>
-      <c r="R33" t="s">
-        <v>314</v>
-      </c>
-      <c r="S33" t="s">
-        <v>314</v>
-      </c>
-      <c r="T33" t="s">
-        <v>314</v>
-      </c>
-      <c r="U33" t="s">
-        <v>314</v>
-      </c>
-      <c r="V33" t="s">
-        <v>314</v>
-      </c>
-      <c r="W33" t="s">
-        <v>314</v>
-      </c>
-      <c r="X33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" t="s">
-        <v>315</v>
-      </c>
-      <c r="F34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" t="s">
-        <v>315</v>
-      </c>
-      <c r="H34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J34" t="s">
-        <v>315</v>
-      </c>
-      <c r="K34" t="s">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s">
-        <v>315</v>
-      </c>
-      <c r="O34" t="s">
-        <v>315</v>
-      </c>
-      <c r="P34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>315</v>
-      </c>
-      <c r="R34" t="s">
-        <v>315</v>
-      </c>
-      <c r="S34" t="s">
-        <v>315</v>
-      </c>
-      <c r="T34" t="s">
-        <v>315</v>
-      </c>
-      <c r="U34" t="s">
-        <v>315</v>
-      </c>
-      <c r="V34" t="s">
-        <v>315</v>
-      </c>
-      <c r="W34" t="s">
-        <v>315</v>
-      </c>
-      <c r="X34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L36" t="s">
-        <v>324</v>
-      </c>
-      <c r="M36" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>347</v>
-      </c>
-      <c r="BN36" t="s">
+      <c r="AX81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>312</v>
+      <c r="AX82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/51545.xlsx
+++ b/icd_files/51545.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6623F-D9B2-4BFA-8D32-69D5228A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF76E2-EEE0-435F-BAC9-64DDCA34087B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="538">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -912,6 +912,9 @@
     <t>09-07</t>
   </si>
   <si>
+    <t>10-08</t>
+  </si>
+  <si>
     <t>10-09</t>
   </si>
   <si>
@@ -933,9 +936,18 @@
     <t>10-15</t>
   </si>
   <si>
+    <t>10-17</t>
+  </si>
+  <si>
     <t>10-19</t>
   </si>
   <si>
+    <t>10-22</t>
+  </si>
+  <si>
+    <t>10-23</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -945,24 +957,186 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
     <t>NS</t>
   </si>
   <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Sodium Polystyrene Sulfonate</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Lactulose Enema</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim DS</t>
+  </si>
+  <si>
     <t>PredniSONE</t>
   </si>
   <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Pneumococcal Vac Polyvalent</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Acetylcysteine 20%</t>
+  </si>
+  <si>
+    <t>Tiotropium Bromide</t>
+  </si>
+  <si>
+    <t>Mycophenolate Mofetil</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Diltiazem</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Fluticasone-Salmeterol Diskus (100/50)</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Sulfameth/Trimethoprim SS</t>
+  </si>
+  <si>
+    <t>Xopenex</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>0.5 VIAL</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>100 BAG</t>
   </si>
   <si>
-    <t>0 VIAL</t>
-  </si>
-  <si>
     <t>15:21</t>
   </si>
   <si>
@@ -975,6 +1149,15 @@
     <t>20:04</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
     <t>00:07</t>
   </si>
   <si>
@@ -996,18 +1179,33 @@
     <t>23:45</t>
   </si>
   <si>
-    <t>1000 BAG</t>
-  </si>
-  <si>
     <t>50 mL</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>150 BAG</t>
+  </si>
+  <si>
     <t>04:28</t>
   </si>
   <si>
     <t>20:53</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>30 BTL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
     <t>00:17</t>
   </si>
   <si>
@@ -1026,6 +1224,21 @@
     <t>20:34</t>
   </si>
   <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1000 BTL</t>
+  </si>
+  <si>
+    <t>240 mL</t>
+  </si>
+  <si>
     <t>00:06</t>
   </si>
   <si>
@@ -1041,6 +1254,9 @@
     <t>16:09</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>00:29</t>
   </si>
   <si>
@@ -1062,10 +1278,46 @@
     <t>60 TAB</t>
   </si>
   <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>750 BAG</t>
+  </si>
+  <si>
+    <t>12.5 TAB</t>
+  </si>
+  <si>
+    <t>25 mL</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>750 TAB</t>
+  </si>
+  <si>
+    <t>0.63 NEB</t>
+  </si>
+  <si>
+    <t>125 VIAL</t>
+  </si>
+  <si>
+    <t>81 TAB</t>
+  </si>
+  <si>
     <t>19:38</t>
   </si>
   <si>
-    <t>100 mL</t>
+    <t>600 VIAL</t>
   </si>
   <si>
     <t>05:30</t>
@@ -1083,9 +1335,15 @@
     <t>70 TAB</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>00:52</t>
   </si>
   <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
     <t>09:49</t>
   </si>
   <si>
@@ -1095,7 +1353,16 @@
     <t>17:00</t>
   </si>
   <si>
-    <t>500 mL</t>
+    <t>15 mL</t>
+  </si>
+  <si>
+    <t>30 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 DEV</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -5024,7 +5291,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000000-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6442,7 +6709,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000001-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7860,7 +8127,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000002-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9560,7 +9827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000003-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11257,7 +11524,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000004-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12300,7 +12567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000005-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13221,7 +13488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000006-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14139,7 +14406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000007-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15057,7 +15324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EB97-4F35-A772-01C583F545EE}"/>
+              <c16:uniqueId val="{00000008-2621-404E-AC96-1BA4B6C646F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15500,7 +15767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF52ED0-8C04-457B-8101-88DA0FE760CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C4ED93-ED8D-4868-B6B5-0F318A48D197}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -15525,7 +15792,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15538,7 +15805,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -15551,7 +15818,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -15564,7 +15831,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -15577,27 +15844,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -15625,7 +15892,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -15653,11 +15920,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -15680,7 +15947,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15717,7 +15984,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -15740,14 +16007,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -15770,14 +16037,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -15800,14 +16067,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -15830,14 +16097,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -15860,16 +16127,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -15892,14 +16159,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>376</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -15922,10 +16189,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -15933,7 +16200,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -15945,7 +16212,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -15968,7 +16235,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -15984,11 +16251,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -16011,7 +16278,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -16029,7 +16296,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -16052,7 +16319,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -16071,7 +16338,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -16094,10 +16361,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>385</v>
+        <v>474</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -16115,7 +16382,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -16138,52 +16405,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -16206,53 +16473,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -16275,43 +16542,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -16319,7 +16586,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -16342,43 +16609,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -16386,7 +16653,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -16409,43 +16676,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -16453,7 +16720,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -16476,43 +16743,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -16520,7 +16787,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -16543,43 +16810,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -16587,7 +16854,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -16610,43 +16877,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -16654,7 +16921,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -16677,43 +16944,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -16721,7 +16988,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -16744,43 +17011,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -16788,7 +17055,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -16811,43 +17078,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -16855,7 +17122,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -16878,43 +17145,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -16922,7 +17189,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -16945,43 +17212,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -16989,7 +17256,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -17012,7 +17279,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -17025,10 +17292,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -17036,7 +17303,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -17059,14 +17326,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -17081,7 +17348,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -17104,7 +17371,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -17124,7 +17391,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -17147,7 +17414,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -17167,7 +17434,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -17190,7 +17457,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -17208,11 +17475,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -17235,14 +17502,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -17265,14 +17532,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -17295,14 +17562,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -17325,14 +17592,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -17355,14 +17622,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -17385,14 +17652,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -17415,10 +17682,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>415</v>
+        <v>504</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -17435,7 +17702,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -17458,7 +17725,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -17476,7 +17743,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -17499,7 +17766,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -17517,7 +17784,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -17540,14 +17807,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -17570,14 +17837,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -17600,24 +17867,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>418</v>
+        <v>507</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -17640,7 +17907,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -17649,7 +17916,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -17672,14 +17939,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -17687,7 +17954,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -17710,7 +17977,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -17719,7 +17986,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -17742,14 +18009,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -17757,7 +18024,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -17780,7 +18047,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -17789,7 +18056,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -17812,24 +18079,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -17852,7 +18119,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -17861,7 +18128,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -17884,22 +18151,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -17907,7 +18174,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -17930,7 +18197,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -17943,7 +18210,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -17966,32 +18233,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -18014,7 +18281,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>436</v>
+        <v>525</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -18023,7 +18290,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -18046,14 +18313,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>438</v>
+        <v>527</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -18061,7 +18328,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -18084,14 +18351,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -18114,12 +18381,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -18147,7 +18414,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -18174,13 +18441,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>443</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -18208,7 +18475,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -18320,7 +18587,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>446</v>
+        <v>535</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -18348,7 +18615,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -18376,7 +18643,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -24386,13 +24653,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BN38"/>
+  <dimension ref="A30:BX84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -24400,7 +24667,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>287</v>
       </c>
@@ -24411,7 +24678,7 @@
         <v>287</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>288</v>
@@ -24432,10 +24699,10 @@
         <v>288</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>289</v>
@@ -24453,10 +24720,10 @@
         <v>289</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>290</v>
@@ -24471,13 +24738,13 @@
         <v>290</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>291</v>
@@ -24489,16 +24756,16 @@
         <v>291</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>292</v>
@@ -24507,70 +24774,70 @@
         <v>292</v>
       </c>
       <c r="AK31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AX31" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AY31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="BG31" s="1" t="s">
         <v>301</v>
@@ -24594,612 +24861,1124 @@
         <v>302</v>
       </c>
       <c r="BN31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP31" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BQ31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" t="s">
+        <v>380</v>
+      </c>
+      <c r="J32" t="s">
+        <v>381</v>
+      </c>
+      <c r="K32" t="s">
+        <v>382</v>
+      </c>
+      <c r="L32" t="s">
+        <v>383</v>
+      </c>
+      <c r="M32" t="s">
+        <v>384</v>
+      </c>
+      <c r="N32" t="s">
+        <v>360</v>
+      </c>
+      <c r="O32" t="s">
+        <v>360</v>
+      </c>
+      <c r="P32" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>380</v>
+      </c>
+      <c r="R32" t="s">
+        <v>381</v>
+      </c>
+      <c r="S32" t="s">
+        <v>382</v>
+      </c>
+      <c r="T32" t="s">
+        <v>389</v>
+      </c>
+      <c r="U32" t="s">
+        <v>360</v>
+      </c>
+      <c r="V32" t="s">
+        <v>394</v>
+      </c>
+      <c r="W32" t="s">
+        <v>395</v>
+      </c>
+      <c r="X32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>432</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>434</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>415</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>416</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>441</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>442</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" t="s">
+        <v>372</v>
+      </c>
+      <c r="K33" t="s">
+        <v>372</v>
+      </c>
+      <c r="L33" t="s">
+        <v>372</v>
+      </c>
+      <c r="M33" t="s">
+        <v>372</v>
+      </c>
+      <c r="P33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>372</v>
+      </c>
+      <c r="R33" t="s">
+        <v>372</v>
+      </c>
+      <c r="S33" t="s">
+        <v>372</v>
+      </c>
+      <c r="T33" t="s">
+        <v>372</v>
+      </c>
+      <c r="V33" t="s">
+        <v>372</v>
+      </c>
+      <c r="W33" t="s">
+        <v>372</v>
+      </c>
+      <c r="X33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I34" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="s">
+        <v>373</v>
+      </c>
+      <c r="K34" t="s">
+        <v>373</v>
+      </c>
+      <c r="L34" t="s">
+        <v>373</v>
+      </c>
+      <c r="M34" t="s">
+        <v>373</v>
+      </c>
+      <c r="P34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>373</v>
+      </c>
+      <c r="R34" t="s">
+        <v>373</v>
+      </c>
+      <c r="S34" t="s">
+        <v>373</v>
+      </c>
+      <c r="T34" t="s">
+        <v>373</v>
+      </c>
+      <c r="V34" t="s">
+        <v>373</v>
+      </c>
+      <c r="W34" t="s">
+        <v>373</v>
+      </c>
+      <c r="X34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>373</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F37" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39" t="s">
+        <v>385</v>
+      </c>
+      <c r="O39" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N40" t="s">
+        <v>386</v>
+      </c>
+      <c r="O40" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E32" t="s">
+      <c r="N41" t="s">
+        <v>387</v>
+      </c>
+      <c r="O41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F32" t="s">
+      <c r="U42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G32" t="s">
+      <c r="U43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H32" t="s">
+      <c r="U44" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I32" t="s">
+      <c r="U45" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>393</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J32" t="s">
+      <c r="AB46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K32" t="s">
+      <c r="AB47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L32" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" t="s">
-        <v>310</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="AB48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="O32" t="s">
-        <v>319</v>
-      </c>
-      <c r="P32" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>321</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="AT51" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="S32" t="s">
+      <c r="AT52" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="T32" t="s">
+      <c r="AU53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="U32" t="s">
+      <c r="B54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C54" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="V32" t="s">
+      <c r="AV55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="W32" t="s">
+      <c r="B56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>425</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="X32" t="s">
+      <c r="B57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C57" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="B58" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="B59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="B60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="B61" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="B62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AD32" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="B65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AH32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI32" t="s">
+      <c r="AW66" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AX67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AK32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="AZ68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AM32" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS32" t="s">
+      <c r="AV69" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AT32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="BP71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AV32" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>321</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="BU73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BV74" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BW75" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BB32" t="s">
-        <v>310</v>
-      </c>
-      <c r="BC32" t="s">
+      <c r="BX76" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BD32" t="s">
-        <v>344</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>319</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>320</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>321</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>343</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>310</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>344</v>
-      </c>
-      <c r="BK32" t="s">
+      <c r="AW78" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="AW79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BM32" t="s">
+      <c r="AW80" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BN32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" t="s">
-        <v>314</v>
-      </c>
-      <c r="E33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G33" t="s">
-        <v>314</v>
-      </c>
-      <c r="H33" t="s">
-        <v>314</v>
-      </c>
-      <c r="I33" t="s">
-        <v>314</v>
-      </c>
-      <c r="J33" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" t="s">
-        <v>314</v>
-      </c>
-      <c r="N33" t="s">
-        <v>314</v>
-      </c>
-      <c r="O33" t="s">
-        <v>314</v>
-      </c>
-      <c r="P33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>314</v>
-      </c>
-      <c r="R33" t="s">
-        <v>314</v>
-      </c>
-      <c r="S33" t="s">
-        <v>314</v>
-      </c>
-      <c r="T33" t="s">
-        <v>314</v>
-      </c>
-      <c r="U33" t="s">
-        <v>314</v>
-      </c>
-      <c r="V33" t="s">
-        <v>314</v>
-      </c>
-      <c r="W33" t="s">
-        <v>314</v>
-      </c>
-      <c r="X33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" t="s">
-        <v>315</v>
-      </c>
-      <c r="F34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" t="s">
-        <v>315</v>
-      </c>
-      <c r="H34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" t="s">
-        <v>315</v>
-      </c>
-      <c r="J34" t="s">
-        <v>315</v>
-      </c>
-      <c r="K34" t="s">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s">
-        <v>315</v>
-      </c>
-      <c r="O34" t="s">
-        <v>315</v>
-      </c>
-      <c r="P34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>315</v>
-      </c>
-      <c r="R34" t="s">
-        <v>315</v>
-      </c>
-      <c r="S34" t="s">
-        <v>315</v>
-      </c>
-      <c r="T34" t="s">
-        <v>315</v>
-      </c>
-      <c r="U34" t="s">
-        <v>315</v>
-      </c>
-      <c r="V34" t="s">
-        <v>315</v>
-      </c>
-      <c r="W34" t="s">
-        <v>315</v>
-      </c>
-      <c r="X34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L36" t="s">
-        <v>324</v>
-      </c>
-      <c r="M36" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>347</v>
-      </c>
-      <c r="BN36" t="s">
+      <c r="AX81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>312</v>
+      <c r="AX82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
